--- a/spreads/9988.xlsx
+++ b/spreads/9988.xlsx
@@ -441,7 +441,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HK$68.45</t>
+          <t>HK$74.15</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,11 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
+          <t>3/31/24</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
           <t>LTM</t>
         </is>
       </c>
@@ -538,9 +543,7 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" s="1" t="n">
-        <v>52504</v>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" s="1" t="n">
         <v>76204</v>
       </c>
@@ -569,7 +572,10 @@
         <v>868687</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>927494</v>
+        <v>941168</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>941168</v>
       </c>
     </row>
     <row r="4">
@@ -579,9 +585,7 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" s="1" t="n">
-        <v>52504</v>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" s="1" t="n">
         <v>76204</v>
       </c>
@@ -610,7 +614,10 @@
         <v>868687</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>927494</v>
+        <v>941168</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>941168</v>
       </c>
     </row>
     <row r="5">
@@ -621,9 +628,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" s="2" t="n">
-        <v>0.451</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" s="2" t="n">
         <v>0.327</v>
       </c>
@@ -648,7 +653,10 @@
       <c r="L5" s="2" t="n">
         <v>0.018</v>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" s="2" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -657,9 +665,7 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" s="1" t="n">
-        <v>-13369</v>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" s="1" t="n">
         <v>-23834</v>
       </c>
@@ -688,7 +694,10 @@
         <v>-548562</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>-575915</v>
+        <v>-586323</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>-586323</v>
       </c>
     </row>
     <row r="7">
@@ -698,9 +707,7 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" s="1" t="n">
-        <v>39135</v>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" s="1" t="n">
         <v>52370</v>
       </c>
@@ -729,7 +736,10 @@
         <v>320125</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>351579</v>
+        <v>354845</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>354845</v>
       </c>
     </row>
     <row r="8">
@@ -740,9 +750,7 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" s="2" t="n">
-        <v>0.338</v>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" s="2" t="n">
         <v>0.275</v>
       </c>
@@ -767,7 +775,10 @@
       <c r="L8" s="2" t="n">
         <v>0.018</v>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" s="2" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -776,9 +787,7 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" s="2" t="n">
-        <v>0.745</v>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" s="2" t="n">
         <v>0.6870000000000001</v>
       </c>
@@ -807,7 +816,10 @@
         <v>0.369</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>0.379</v>
+        <v>0.377</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>0.377</v>
       </c>
     </row>
     <row r="10">
@@ -817,9 +829,7 @@
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" s="1" t="n">
-        <v>-7494</v>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" s="1" t="n">
         <v>-16313</v>
       </c>
@@ -848,7 +858,10 @@
         <v>-145679</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>-152044</v>
+        <v>-157126</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>-157126</v>
       </c>
     </row>
     <row r="11">
@@ -858,9 +871,7 @@
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" s="1" t="n">
-        <v>-5093</v>
-      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" s="1" t="n">
         <v>-10658</v>
       </c>
@@ -889,7 +900,10 @@
         <v>-56744</v>
       </c>
       <c r="M11" s="1" t="n">
-        <v>-52051</v>
+        <v>-52256</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>-52256</v>
       </c>
     </row>
     <row r="12">
@@ -899,9 +913,7 @@
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" s="3" t="n">
-        <v>-315</v>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" s="1" t="n">
         <v>-2089</v>
       </c>
@@ -927,10 +939,13 @@
         <v>-10674</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>-11582</v>
+        <v>-10693</v>
       </c>
       <c r="M12" s="1" t="n">
-        <v>-20083</v>
+        <v>-6745</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>-6745</v>
       </c>
     </row>
     <row r="13">
@@ -940,9 +955,7 @@
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" s="1" t="n">
-        <v>-12902</v>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" s="1" t="n">
         <v>-29060</v>
       </c>
@@ -968,10 +981,13 @@
         <v>-217860</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>-214005</v>
+        <v>-213116</v>
       </c>
       <c r="M13" s="1" t="n">
-        <v>-224178</v>
+        <v>-216127</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>-216127</v>
       </c>
     </row>
     <row r="14">
@@ -981,9 +997,7 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" s="1" t="n">
-        <v>26233</v>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" s="1" t="n">
         <v>23310</v>
       </c>
@@ -1009,10 +1023,13 @@
         <v>96497</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>106120</v>
+        <v>107009</v>
       </c>
       <c r="M14" s="1" t="n">
-        <v>127401</v>
+        <v>138718</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>138718</v>
       </c>
     </row>
     <row r="15">
@@ -1023,9 +1040,7 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" s="3" t="n">
-        <v>-11.1</v>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" s="2" t="n">
         <v>0.268</v>
       </c>
@@ -1048,9 +1063,12 @@
         <v>-12</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0.109</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1059,9 +1077,7 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" s="2" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" s="2" t="n">
         <v>0.306</v>
       </c>
@@ -1087,10 +1103,13 @@
         <v>0.113</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0.122</v>
+        <v>0.123</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>0.137</v>
+        <v>0.147</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>0.147</v>
       </c>
     </row>
     <row r="17">
@@ -1100,9 +1119,7 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" s="1" t="n">
-        <v>-2093</v>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" s="1" t="n">
         <v>-2750</v>
       </c>
@@ -1131,7 +1148,10 @@
         <v>-5918</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>-7506</v>
+        <v>-7947</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>-7947</v>
       </c>
     </row>
     <row r="18">
@@ -1141,9 +1161,7 @@
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" s="1" t="n">
-        <v>1546</v>
-      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" s="1" t="n">
         <v>9455</v>
       </c>
@@ -1168,6 +1186,7 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1176,9 +1195,7 @@
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" s="3" t="n">
-        <v>-203</v>
-      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" s="1" t="n">
         <v>-1590</v>
       </c>
@@ -1207,7 +1224,10 @@
         <v>-8063</v>
       </c>
       <c r="M19" s="1" t="n">
-        <v>-4081</v>
+        <v>-7735</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>-7735</v>
       </c>
     </row>
     <row r="20">
@@ -1217,9 +1237,7 @@
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" s="3" t="n">
-        <v>-298</v>
-      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" s="3" t="n">
         <v>1</v>
       </c>
@@ -1238,6 +1256,7 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1246,9 +1265,7 @@
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" s="1" t="n">
-        <v>2727</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" s="1" t="n">
         <v>2485</v>
       </c>
@@ -1277,7 +1294,10 @@
         <v>5823</v>
       </c>
       <c r="M21" s="1" t="n">
-        <v>4502</v>
+        <v>6157</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>6157</v>
       </c>
     </row>
     <row r="22">
@@ -1287,9 +1307,7 @@
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" s="1" t="n">
-        <v>27912</v>
-      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" s="1" t="n">
         <v>30911</v>
       </c>
@@ -1315,10 +1333,13 @@
         <v>116455</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>97962</v>
+        <v>98851</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>120316</v>
+        <v>129193</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>129193</v>
       </c>
     </row>
     <row r="23">
@@ -1328,9 +1349,7 @@
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" s="3" t="n">
-        <v>-44</v>
-      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" s="3" t="n">
         <v>-175</v>
       </c>
@@ -1353,6 +1372,9 @@
         <v>-2714</v>
       </c>
       <c r="M23" s="1" t="n">
+        <v>-10521</v>
+      </c>
+      <c r="N23" s="1" t="n">
         <v>-10521</v>
       </c>
     </row>
@@ -1378,7 +1400,10 @@
         <v>-11071</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>6234</v>
+        <v>-9964</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>-9964</v>
       </c>
     </row>
     <row r="25">
@@ -1410,10 +1435,13 @@
         <v>-1718</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>-3055</v>
+        <v>-3944</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>-3055</v>
+        <v>-14847</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>-14847</v>
       </c>
     </row>
     <row r="26">
@@ -1438,6 +1466,7 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1446,9 +1475,7 @@
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" s="1" t="n">
-        <v>-1269</v>
-      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -1459,6 +1486,7 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1467,9 +1495,7 @@
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" s="1" t="n">
-        <v>26599</v>
-      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" s="1" t="n">
         <v>30736</v>
       </c>
@@ -1498,7 +1524,10 @@
         <v>81122</v>
       </c>
       <c r="M28" s="1" t="n">
-        <v>112974</v>
+        <v>93861</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>93861</v>
       </c>
     </row>
     <row r="29">
@@ -1508,9 +1537,7 @@
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
-      <c r="C29" s="1" t="n">
-        <v>-3196</v>
-      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" s="1" t="n">
         <v>-6416</v>
       </c>
@@ -1539,7 +1566,10 @@
         <v>-15549</v>
       </c>
       <c r="M29" s="1" t="n">
-        <v>-20565</v>
+        <v>-22529</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>-22529</v>
       </c>
     </row>
     <row r="30">
@@ -1549,9 +1579,7 @@
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" s="1" t="n">
-        <v>23403</v>
-      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" s="1" t="n">
         <v>24320</v>
       </c>
@@ -1580,7 +1608,10 @@
         <v>65573</v>
       </c>
       <c r="M30" s="1" t="n">
-        <v>92409</v>
+        <v>71332</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>71332</v>
       </c>
     </row>
     <row r="31">
@@ -1590,9 +1621,7 @@
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" s="1" t="n">
-        <v>23403</v>
-      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" s="1" t="n">
         <v>24320</v>
       </c>
@@ -1621,7 +1650,10 @@
         <v>65573</v>
       </c>
       <c r="M31" s="1" t="n">
-        <v>92409</v>
+        <v>71332</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>71332</v>
       </c>
     </row>
     <row r="32">
@@ -1631,9 +1663,7 @@
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" s="3" t="n">
-        <v>-88</v>
-      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" s="3" t="n">
         <v>-59</v>
       </c>
@@ -1662,7 +1692,10 @@
         <v>7210</v>
       </c>
       <c r="M32" s="1" t="n">
-        <v>7879</v>
+        <v>8677</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>8677</v>
       </c>
     </row>
     <row r="33">
@@ -1672,9 +1705,7 @@
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" s="1" t="n">
-        <v>23315</v>
-      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" s="1" t="n">
         <v>24261</v>
       </c>
@@ -1703,7 +1734,10 @@
         <v>72783</v>
       </c>
       <c r="M33" s="1" t="n">
-        <v>100288</v>
+        <v>80009</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>80009</v>
       </c>
     </row>
     <row r="34">
@@ -1713,9 +1747,7 @@
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" s="3" t="n">
-        <v>-239</v>
-      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" s="3" t="n">
         <v>-112</v>
       </c>
@@ -1740,7 +1772,10 @@
         <v>-274</v>
       </c>
       <c r="M34" s="3" t="n">
-        <v>-301</v>
+        <v>-268</v>
+      </c>
+      <c r="N34" s="3" t="n">
+        <v>-268</v>
       </c>
     </row>
     <row r="35">
@@ -1750,9 +1785,7 @@
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" s="1" t="n">
-        <v>23076</v>
-      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" s="1" t="n">
         <v>24149</v>
       </c>
@@ -1781,7 +1814,10 @@
         <v>72509</v>
       </c>
       <c r="M35" s="1" t="n">
-        <v>99987</v>
+        <v>79741</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <v>79741</v>
       </c>
     </row>
     <row r="36">
@@ -1791,9 +1827,7 @@
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" s="2" t="n">
-        <v>0.44</v>
-      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" s="2" t="n">
         <v>0.317</v>
       </c>
@@ -1822,7 +1856,10 @@
         <v>0.083</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>0.108</v>
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="N36" s="2" t="n">
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1832,9 +1869,7 @@
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" s="1" t="n">
-        <v>23076</v>
-      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" s="1" t="n">
         <v>24149</v>
       </c>
@@ -1863,7 +1898,10 @@
         <v>72509</v>
       </c>
       <c r="M37" s="1" t="n">
-        <v>99987</v>
+        <v>79741</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <v>79741</v>
       </c>
     </row>
     <row r="38">
@@ -1873,9 +1911,7 @@
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" s="2" t="n">
-        <v>0.44</v>
-      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" s="2" t="n">
         <v>0.317</v>
       </c>
@@ -1904,7 +1940,10 @@
         <v>0.083</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>0.108</v>
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="N38" s="2" t="n">
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="39">
@@ -1921,9 +1960,7 @@
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" s="3" t="n">
-        <v>10</v>
-      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" s="3" t="n">
         <v>9.699999999999999</v>
       </c>
@@ -1952,7 +1989,10 @@
         <v>27.46</v>
       </c>
       <c r="M40" s="3" t="n">
-        <v>38.76</v>
+        <v>31.24</v>
+      </c>
+      <c r="N40" s="3" t="n">
+        <v>31.24</v>
       </c>
     </row>
     <row r="41">
@@ -1963,9 +2003,7 @@
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" s="3" t="n">
-        <v>-2.9</v>
-      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" s="2" t="n">
         <v>1.874</v>
       </c>
@@ -1990,7 +2028,10 @@
       <c r="L41" s="2" t="n">
         <v>0.208</v>
       </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" s="2" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1999,9 +2040,7 @@
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" s="1" t="n">
-        <v>2332</v>
-      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" s="1" t="n">
         <v>2500</v>
       </c>
@@ -2030,7 +2069,10 @@
         <v>2639.25</v>
       </c>
       <c r="M42" s="1" t="n">
-        <v>2573.16</v>
+        <v>2544.88</v>
+      </c>
+      <c r="N42" s="1" t="n">
+        <v>2544.88</v>
       </c>
     </row>
     <row r="43">
@@ -2041,9 +2083,7 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" s="2" t="n">
-        <v>0.07200000000000001</v>
-      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" s="2" t="n">
         <v>0.025</v>
       </c>
@@ -2068,7 +2108,10 @@
       <c r="L43" s="3" t="n">
         <v>-3.1</v>
       </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" s="3" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2077,9 +2120,7 @@
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" s="1" t="n">
-        <v>2175</v>
-      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" s="1" t="n">
         <v>2337</v>
       </c>
@@ -2108,7 +2149,10 @@
         <v>2622.5</v>
       </c>
       <c r="M44" s="1" t="n">
-        <v>2550.59</v>
+        <v>2522.75</v>
+      </c>
+      <c r="N44" s="1" t="n">
+        <v>2522.75</v>
       </c>
     </row>
     <row r="45">
@@ -2119,9 +2163,7 @@
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" s="2" t="n">
-        <v>0.07400000000000001</v>
-      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" s="2" t="n">
         <v>0.052</v>
       </c>
@@ -2146,7 +2188,10 @@
       <c r="L45" s="3" t="n">
         <v>-2.7</v>
       </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" s="3" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2168,7 +2213,10 @@
         <v>6.87</v>
       </c>
       <c r="M46" s="3" t="n">
-        <v>6.87</v>
+        <v>7.22</v>
+      </c>
+      <c r="N46" s="3" t="n">
+        <v>7.22</v>
       </c>
     </row>
     <row r="47">
@@ -2188,21 +2236,20 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" s="2" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Payout Ratio %</t>
+          <t>Special Dividends Per Share</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
-      <c r="C48" s="2" t="n">
-        <v>0.009000000000000001</v>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>0.004</v>
-      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
@@ -2211,328 +2258,369 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+      <c r="M48" s="3" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="N48" s="3" t="n">
+        <v>4.77</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Basic EPS</t>
+          <t>Payout Ratio %</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
-      <c r="C49" s="3" t="n">
-        <v>10.61</v>
-      </c>
-      <c r="D49" s="3" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="E49" s="3" t="n">
-        <v>29.07</v>
-      </c>
-      <c r="F49" s="3" t="n">
-        <v>17.52</v>
-      </c>
-      <c r="G49" s="3" t="n">
-        <v>25.06</v>
-      </c>
-      <c r="H49" s="3" t="n">
-        <v>33.95</v>
-      </c>
-      <c r="I49" s="3" t="n">
-        <v>56.82</v>
-      </c>
-      <c r="J49" s="3" t="n">
-        <v>55.62</v>
-      </c>
-      <c r="K49" s="3" t="n">
-        <v>22.99</v>
-      </c>
-      <c r="L49" s="3" t="n">
-        <v>27.65</v>
-      </c>
-      <c r="M49" s="3" t="n">
-        <v>39.2</v>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" s="2" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" s="2" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="N49" s="2" t="n">
+        <v>0.224</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>EBITDA</t>
+          <t>Basic EPS</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
-      <c r="C50" s="1" t="n">
-        <v>27843</v>
-      </c>
-      <c r="D50" s="1" t="n">
-        <v>27765</v>
-      </c>
-      <c r="E50" s="1" t="n">
-        <v>36534</v>
-      </c>
-      <c r="F50" s="1" t="n">
-        <v>63097</v>
-      </c>
-      <c r="G50" s="1" t="n">
-        <v>92494</v>
-      </c>
-      <c r="H50" s="1" t="n">
-        <v>98542</v>
-      </c>
-      <c r="I50" s="1" t="n">
-        <v>137763</v>
-      </c>
-      <c r="J50" s="1" t="n">
-        <v>157503</v>
-      </c>
-      <c r="K50" s="1" t="n">
-        <v>144562</v>
-      </c>
-      <c r="L50" s="1" t="n">
-        <v>153058</v>
-      </c>
-      <c r="M50" s="1" t="n">
-        <v>181686</v>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" s="3" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>17.52</v>
+      </c>
+      <c r="G50" s="3" t="n">
+        <v>25.06</v>
+      </c>
+      <c r="H50" s="3" t="n">
+        <v>33.95</v>
+      </c>
+      <c r="I50" s="3" t="n">
+        <v>56.82</v>
+      </c>
+      <c r="J50" s="3" t="n">
+        <v>55.62</v>
+      </c>
+      <c r="K50" s="3" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="L50" s="3" t="n">
+        <v>27.65</v>
+      </c>
+      <c r="M50" s="3" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="N50" s="3" t="n">
+        <v>31.61</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>% Change YoY</t>
+          <t>EBITDA</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" s="3" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="E51" s="2" t="n">
-        <v>0.316</v>
-      </c>
-      <c r="F51" s="2" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="G51" s="2" t="n">
-        <v>0.466</v>
-      </c>
-      <c r="H51" s="2" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>0.398</v>
-      </c>
-      <c r="J51" s="2" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="K51" s="3" t="n">
-        <v>-8.199999999999999</v>
-      </c>
-      <c r="L51" s="2" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="D51" s="1" t="n">
+        <v>27765</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>36534</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>63097</v>
+      </c>
+      <c r="G51" s="1" t="n">
+        <v>92494</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <v>98542</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>137763</v>
+      </c>
+      <c r="J51" s="1" t="n">
+        <v>157503</v>
+      </c>
+      <c r="K51" s="1" t="n">
+        <v>144562</v>
+      </c>
+      <c r="L51" s="1" t="n">
+        <v>153947</v>
+      </c>
+      <c r="M51" s="1" t="n">
+        <v>183222</v>
+      </c>
+      <c r="N51" s="1" t="n">
+        <v>183222</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>EBITDAR</t>
+          <t>% Change YoY</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
-      <c r="C52" s="1" t="n">
-        <v>28060</v>
-      </c>
-      <c r="D52" s="1" t="n">
-        <v>28087</v>
-      </c>
-      <c r="E52" s="1" t="n">
-        <v>36985</v>
-      </c>
-      <c r="F52" s="1" t="n">
-        <v>63844</v>
-      </c>
-      <c r="G52" s="1" t="n">
-        <v>94773</v>
-      </c>
-      <c r="H52" s="1" t="n">
-        <v>103241</v>
-      </c>
-      <c r="I52" s="1" t="n">
-        <v>143363</v>
-      </c>
-      <c r="J52" s="1" t="n">
-        <v>164315</v>
-      </c>
-      <c r="K52" s="1" t="n">
-        <v>155544</v>
-      </c>
-      <c r="L52" s="1" t="n">
-        <v>163860</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" s="2" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>0.466</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="J52" s="2" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="K52" s="3" t="n">
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="L52" s="2" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="M52" s="2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>R&amp;D Expense</t>
+          <t>EBITDAR</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
-      <c r="C53" s="1" t="n">
-        <v>5093</v>
-      </c>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" s="1" t="n">
-        <v>10658</v>
+        <v>28087</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>13788</v>
+        <v>36985</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>17060</v>
+        <v>63844</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>22754</v>
+        <v>94773</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>37435</v>
+        <v>103241</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>43080</v>
+        <v>143363</v>
       </c>
       <c r="J53" s="1" t="n">
-        <v>57236</v>
+        <v>164315</v>
       </c>
       <c r="K53" s="1" t="n">
-        <v>55465</v>
+        <v>156381</v>
       </c>
       <c r="L53" s="1" t="n">
-        <v>56744</v>
+        <v>165421</v>
       </c>
       <c r="M53" s="1" t="n">
-        <v>52051</v>
+        <v>194629</v>
+      </c>
+      <c r="N53" s="1" t="n">
+        <v>194629</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Selling and Marketing Expense</t>
+          <t>R&amp;D Expense</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
-      <c r="C54" s="1" t="n">
-        <v>4545</v>
-      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" s="1" t="n">
-        <v>8513</v>
+        <v>10658</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>11307</v>
+        <v>13788</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>16314</v>
+        <v>17060</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>27299</v>
+        <v>22754</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>39780</v>
+        <v>37435</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>50673</v>
+        <v>43080</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>81519</v>
+        <v>57236</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>119799</v>
+        <v>55465</v>
       </c>
       <c r="L54" s="1" t="n">
-        <v>103496</v>
+        <v>56744</v>
       </c>
       <c r="M54" s="1" t="n">
-        <v>111246</v>
+        <v>52256</v>
+      </c>
+      <c r="N54" s="1" t="n">
+        <v>52256</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>General and Administrative Expense</t>
+          <t>Selling and Marketing Expense</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" s="1" t="n">
-        <v>2949</v>
-      </c>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" s="1" t="n">
-        <v>7800</v>
+        <v>8513</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>9205</v>
+        <v>11307</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>12239</v>
+        <v>16314</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>16241</v>
+        <v>27299</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>23210</v>
+        <v>39780</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>28197</v>
+        <v>50673</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>36996</v>
+        <v>81519</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>31922</v>
+        <v>119799</v>
       </c>
       <c r="L55" s="1" t="n">
-        <v>42183</v>
+        <v>103496</v>
       </c>
       <c r="M55" s="1" t="n">
-        <v>40798</v>
+        <v>115141</v>
+      </c>
+      <c r="N55" s="1" t="n">
+        <v>115141</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>General and Administrative Expense</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" s="1" t="n">
+        <v>7800</v>
+      </c>
+      <c r="E56" s="1" t="n">
+        <v>9205</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <v>12239</v>
+      </c>
+      <c r="G56" s="1" t="n">
+        <v>16241</v>
+      </c>
+      <c r="H56" s="1" t="n">
+        <v>23210</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>28197</v>
+      </c>
+      <c r="J56" s="1" t="n">
+        <v>36996</v>
+      </c>
+      <c r="K56" s="1" t="n">
+        <v>31922</v>
+      </c>
+      <c r="L56" s="1" t="n">
+        <v>42183</v>
+      </c>
+      <c r="M56" s="1" t="n">
+        <v>41985</v>
+      </c>
+      <c r="N56" s="1" t="n">
+        <v>41985</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
           <t>Effective Tax Rate %</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" s="2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D56" s="2" t="n">
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" s="2" t="n">
         <v>0.209</v>
       </c>
-      <c r="E56" s="2" t="n">
+      <c r="E57" s="2" t="n">
         <v>0.106</v>
       </c>
-      <c r="F56" s="2" t="n">
+      <c r="F57" s="2" t="n">
         <v>0.25</v>
       </c>
-      <c r="G56" s="2" t="n">
+      <c r="G57" s="2" t="n">
         <v>0.229</v>
       </c>
-      <c r="H56" s="2" t="n">
+      <c r="H57" s="2" t="n">
         <v>0.171</v>
       </c>
-      <c r="I56" s="2" t="n">
+      <c r="I57" s="2" t="n">
         <v>0.128</v>
       </c>
-      <c r="J56" s="2" t="n">
+      <c r="J57" s="2" t="n">
         <v>0.17</v>
       </c>
-      <c r="K56" s="2" t="n">
+      <c r="K57" s="2" t="n">
         <v>0.363</v>
       </c>
-      <c r="L56" s="2" t="n">
+      <c r="L57" s="2" t="n">
         <v>0.192</v>
       </c>
-      <c r="M56" s="2" t="n">
-        <v>0.182</v>
+      <c r="M57" s="2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="N57" s="2" t="n">
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
@@ -2546,7 +2634,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2617,6 +2705,11 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
+          <t>3/31/24</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
           <t>LTM</t>
         </is>
       </c>
@@ -2628,9 +2721,7 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" s="1" t="n">
-        <v>33045</v>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" s="1" t="n">
         <v>108193</v>
       </c>
@@ -2659,7 +2750,10 @@
         <v>193086</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>254804</v>
+        <v>248125</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>248125</v>
       </c>
     </row>
     <row r="4">
@@ -2669,9 +2763,7 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" s="1" t="n">
-        <v>12029</v>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" s="1" t="n">
         <v>17806</v>
       </c>
@@ -2700,7 +2792,10 @@
         <v>331384</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>359595</v>
+        <v>322904</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>322904</v>
       </c>
     </row>
     <row r="5">
@@ -2721,6 +2816,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2729,9 +2825,7 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" s="1" t="n">
-        <v>45074</v>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" s="1" t="n">
         <v>125999</v>
       </c>
@@ -2760,7 +2854,10 @@
         <v>524470</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>614399</v>
+        <v>571029</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>571029</v>
       </c>
     </row>
     <row r="7">
@@ -2770,9 +2867,7 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" s="1" t="n">
-        <v>2429</v>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" s="1" t="n">
         <v>5909</v>
       </c>
@@ -2800,7 +2895,12 @@
       <c r="L7" s="1" t="n">
         <v>41176</v>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" s="1" t="n">
+        <v>38943</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>38943</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2809,9 +2909,7 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" s="3" t="n">
-        <v>309</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" s="1" t="n">
         <v>4018</v>
       </c>
@@ -2839,7 +2937,12 @@
       <c r="L8" s="1" t="n">
         <v>22968</v>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" s="1" t="n">
+        <v>29959</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>29959</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2848,9 +2951,7 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" s="1" t="n">
-        <v>13268</v>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" s="3" t="n">
         <v>988</v>
       </c>
@@ -2869,6 +2970,7 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2877,9 +2979,7 @@
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" s="1" t="n">
-        <v>16006</v>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" s="1" t="n">
         <v>10915</v>
       </c>
@@ -2907,7 +3007,12 @@
       <c r="L10" s="1" t="n">
         <v>64144</v>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" s="1" t="n">
+        <v>68902</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>68902</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2940,7 +3045,12 @@
       <c r="L11" s="1" t="n">
         <v>28547</v>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" s="1" t="n">
+        <v>25460</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>25460</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2949,9 +3059,7 @@
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" s="3" t="n">
-        <v>134</v>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" s="3" t="n">
         <v>433</v>
       </c>
@@ -2979,7 +3087,12 @@
       <c r="L12" s="1" t="n">
         <v>16794</v>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" s="1" t="n">
+        <v>17784</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>17784</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2988,9 +3101,7 @@
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" s="3" t="n">
-        <v>191</v>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" s="3" t="n">
         <v>256</v>
       </c>
@@ -3005,6 +3116,7 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3013,9 +3125,7 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" s="1" t="n">
-        <v>1858</v>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" s="1" t="n">
         <v>2297</v>
       </c>
@@ -3030,6 +3140,7 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3038,9 +3149,7 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" s="1" t="n">
-        <v>4570</v>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" s="1" t="n">
         <v>2209</v>
       </c>
@@ -3069,7 +3178,10 @@
         <v>64011</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>192843</v>
+        <v>69689</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>69689</v>
       </c>
     </row>
     <row r="16">
@@ -3079,9 +3191,7 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" s="1" t="n">
-        <v>67833</v>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" s="1" t="n">
         <v>142109</v>
       </c>
@@ -3110,7 +3220,10 @@
         <v>697966</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>807242</v>
+        <v>752864</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>752864</v>
       </c>
     </row>
     <row r="17">
@@ -3120,9 +3233,7 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" s="1" t="n">
-        <v>9161</v>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" s="1" t="n">
         <v>14905</v>
       </c>
@@ -3150,7 +3261,12 @@
       <c r="L17" s="1" t="n">
         <v>368027</v>
       </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" s="1" t="n">
+        <v>392561</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>392561</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3159,9 +3275,7 @@
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" s="1" t="n">
-        <v>-3580</v>
-      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" s="1" t="n">
         <v>-5766</v>
       </c>
@@ -3189,7 +3303,12 @@
       <c r="L18" s="1" t="n">
         <v>-114568</v>
       </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" s="1" t="n">
+        <v>-130473</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>-130473</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3198,9 +3317,7 @@
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" s="1" t="n">
-        <v>5581</v>
-      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" s="1" t="n">
         <v>9139</v>
       </c>
@@ -3229,7 +3346,10 @@
         <v>253459</v>
       </c>
       <c r="M19" s="1" t="n">
-        <v>181608</v>
+        <v>262088</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>262088</v>
       </c>
     </row>
     <row r="20">
@@ -3239,9 +3359,7 @@
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" s="1" t="n">
-        <v>20827</v>
-      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" s="1" t="n">
         <v>48488</v>
       </c>
@@ -3270,7 +3388,10 @@
         <v>453117</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>429204</v>
+        <v>424073</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>424073</v>
       </c>
     </row>
     <row r="21">
@@ -3280,9 +3401,7 @@
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" s="1" t="n">
-        <v>11793</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" s="1" t="n">
         <v>41933</v>
       </c>
@@ -3311,7 +3430,10 @@
         <v>268091</v>
       </c>
       <c r="M21" s="1" t="n">
-        <v>259522</v>
+        <v>259679</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>259679</v>
       </c>
     </row>
     <row r="22">
@@ -3321,9 +3443,7 @@
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" s="1" t="n">
-        <v>3566</v>
-      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" s="1" t="n">
         <v>9680</v>
       </c>
@@ -3352,7 +3472,10 @@
         <v>46913</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>28355</v>
+        <v>26950</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>26950</v>
       </c>
     </row>
     <row r="23">
@@ -3362,9 +3485,7 @@
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" s="3" t="n">
-        <v>503</v>
-      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" s="3" t="n">
         <v>534</v>
       </c>
@@ -3381,6 +3502,7 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3389,9 +3511,7 @@
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" s="3" t="n">
-        <v>66</v>
-      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" s="3" t="n">
         <v>157</v>
       </c>
@@ -3419,7 +3539,12 @@
       <c r="L24" s="1" t="n">
         <v>15494</v>
       </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" s="1" t="n">
+        <v>11361</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>11361</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3428,9 +3553,7 @@
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" s="3" t="n">
-        <v>144</v>
-      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" s="3" t="n">
         <v>460</v>
       </c>
@@ -3451,6 +3574,7 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3459,9 +3583,7 @@
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" s="1" t="n">
-        <v>1236</v>
-      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" s="1" t="n">
         <v>2934</v>
       </c>
@@ -3490,7 +3612,10 @@
         <v>18004</v>
       </c>
       <c r="M26" s="1" t="n">
-        <v>115035</v>
+        <v>27814</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>27814</v>
       </c>
     </row>
     <row r="27">
@@ -3500,9 +3625,7 @@
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" s="1" t="n">
-        <v>111549</v>
-      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" s="1" t="n">
         <v>255434</v>
       </c>
@@ -3531,7 +3654,10 @@
         <v>1753044</v>
       </c>
       <c r="M27" s="1" t="n">
-        <v>1820966</v>
+        <v>1764829</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>1764829</v>
       </c>
     </row>
     <row r="28">
@@ -3541,9 +3667,7 @@
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" s="1" t="n">
-        <v>2046</v>
-      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" s="1" t="n">
         <v>5158</v>
       </c>
@@ -3569,9 +3693,14 @@
         <v>107205</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>103369</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>113752</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>127560</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>127560</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3580,9 +3709,7 @@
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
-      <c r="C29" s="1" t="n">
-        <v>5495</v>
-      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" s="1" t="n">
         <v>8367</v>
       </c>
@@ -3611,7 +3738,10 @@
         <v>35997</v>
       </c>
       <c r="M29" s="1" t="n">
-        <v>315242</v>
+        <v>37565</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>37565</v>
       </c>
     </row>
     <row r="30">
@@ -3621,9 +3751,7 @@
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" s="1" t="n">
-        <v>10364</v>
-      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" s="1" t="n">
         <v>1990</v>
       </c>
@@ -3652,7 +3780,10 @@
         <v>7466</v>
       </c>
       <c r="M30" s="1" t="n">
-        <v>10396</v>
+        <v>12749</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>12749</v>
       </c>
     </row>
     <row r="31">
@@ -3681,7 +3812,10 @@
         <v>4800</v>
       </c>
       <c r="M31" s="1" t="n">
-        <v>15958</v>
+        <v>16252</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>16252</v>
       </c>
     </row>
     <row r="32">
@@ -3709,7 +3843,12 @@
       <c r="L32" s="1" t="n">
         <v>5667</v>
       </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" s="1" t="n">
+        <v>5871</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>5871</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3718,9 +3857,7 @@
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" s="1" t="n">
-        <v>1267</v>
-      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" s="1" t="n">
         <v>2733</v>
       </c>
@@ -3749,7 +3886,10 @@
         <v>12543</v>
       </c>
       <c r="M33" s="1" t="n">
-        <v>11017</v>
+        <v>9068</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>9068</v>
       </c>
     </row>
     <row r="34">
@@ -3759,9 +3899,7 @@
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" s="1" t="n">
-        <v>5494</v>
-      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" s="1" t="n">
         <v>6727</v>
       </c>
@@ -3790,7 +3928,10 @@
         <v>31790</v>
       </c>
       <c r="M34" s="1" t="n">
-        <v>72240</v>
+        <v>33073</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>33073</v>
       </c>
     </row>
     <row r="35">
@@ -3800,9 +3941,7 @@
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" s="1" t="n">
-        <v>12718</v>
-      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" s="1" t="n">
         <v>14697</v>
       </c>
@@ -3828,10 +3967,13 @@
         <v>175292</v>
       </c>
       <c r="L35" s="1" t="n">
-        <v>183719</v>
+        <v>173336</v>
       </c>
       <c r="M35" s="1" t="n">
-        <v>23901</v>
+        <v>179369</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <v>179369</v>
       </c>
     </row>
     <row r="36">
@@ -3841,9 +3983,7 @@
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" s="1" t="n">
-        <v>37384</v>
-      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" s="1" t="n">
         <v>39672</v>
       </c>
@@ -3872,7 +4012,10 @@
         <v>385351</v>
       </c>
       <c r="M36" s="1" t="n">
-        <v>448754</v>
+        <v>421507</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>421507</v>
       </c>
     </row>
     <row r="37">
@@ -3882,9 +4025,7 @@
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" s="1" t="n">
-        <v>30711</v>
-      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" s="1" t="n">
         <v>50603</v>
       </c>
@@ -3913,7 +4054,10 @@
         <v>149088</v>
       </c>
       <c r="M37" s="1" t="n">
-        <v>139572</v>
+        <v>141775</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <v>141775</v>
       </c>
     </row>
     <row r="38">
@@ -3942,7 +4086,10 @@
         <v>28548</v>
       </c>
       <c r="M38" s="1" t="n">
-        <v>32579</v>
+        <v>28967</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <v>28967</v>
       </c>
     </row>
     <row r="39">
@@ -3952,9 +4099,7 @@
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" s="3" t="n">
-        <v>428</v>
-      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" s="3" t="n">
         <v>445</v>
       </c>
@@ -3983,7 +4128,10 @@
         <v>3560</v>
       </c>
       <c r="M39" s="1" t="n">
-        <v>4048</v>
+        <v>4069</v>
+      </c>
+      <c r="N39" s="1" t="n">
+        <v>4069</v>
       </c>
     </row>
     <row r="40">
@@ -3993,9 +4141,7 @@
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" s="1" t="n">
-        <v>2136</v>
-      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" s="1" t="n">
         <v>4493</v>
       </c>
@@ -4024,7 +4170,10 @@
         <v>61745</v>
       </c>
       <c r="M40" s="1" t="n">
-        <v>53583</v>
+        <v>53012</v>
+      </c>
+      <c r="N40" s="1" t="n">
+        <v>53012</v>
       </c>
     </row>
     <row r="41">
@@ -4034,9 +4183,7 @@
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" s="3" t="n">
-        <v>189</v>
-      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" s="1" t="n">
         <v>2808</v>
       </c>
@@ -4064,7 +4211,12 @@
       <c r="L41" s="1" t="n">
         <v>1831</v>
       </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" s="1" t="n">
+        <v>2900</v>
+      </c>
+      <c r="N41" s="1" t="n">
+        <v>2900</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4073,9 +4225,7 @@
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" s="1" t="n">
-        <v>70848</v>
-      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" s="1" t="n">
         <v>98021</v>
       </c>
@@ -4104,7 +4254,10 @@
         <v>630123</v>
       </c>
       <c r="M42" s="1" t="n">
-        <v>678536</v>
+        <v>652230</v>
+      </c>
+      <c r="N42" s="1" t="n">
+        <v>652230</v>
       </c>
     </row>
     <row r="43">
@@ -4114,9 +4267,7 @@
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" s="1" t="n">
-        <v>10284</v>
-      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
@@ -4127,6 +4278,7 @@
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4135,9 +4287,7 @@
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" s="1" t="n">
-        <v>10284</v>
-      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
@@ -4148,6 +4298,7 @@
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4156,9 +4307,7 @@
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" s="3" t="n">
         <v>1</v>
       </c>
@@ -4189,6 +4338,9 @@
       <c r="M45" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="N45" s="3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4197,9 +4349,7 @@
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" s="1" t="n">
-        <v>27043</v>
-      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" s="1" t="n">
         <v>117142</v>
       </c>
@@ -4228,7 +4378,10 @@
         <v>416880</v>
       </c>
       <c r="M46" s="1" t="n">
-        <v>406515</v>
+        <v>397999</v>
+      </c>
+      <c r="N46" s="1" t="n">
+        <v>397999</v>
       </c>
     </row>
     <row r="47">
@@ -4238,9 +4391,7 @@
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
-      <c r="C47" s="1" t="n">
-        <v>3657</v>
-      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" s="1" t="n">
         <v>27557</v>
       </c>
@@ -4269,7 +4420,10 @@
         <v>612005</v>
       </c>
       <c r="M47" s="1" t="n">
-        <v>631576</v>
+        <v>612630</v>
+      </c>
+      <c r="N47" s="1" t="n">
+        <v>612630</v>
       </c>
     </row>
     <row r="48">
@@ -4298,7 +4452,10 @@
         <v>-28763</v>
       </c>
       <c r="M48" s="1" t="n">
-        <v>-27905</v>
+        <v>-27684</v>
+      </c>
+      <c r="N48" s="1" t="n">
+        <v>-27684</v>
       </c>
     </row>
     <row r="49">
@@ -4308,9 +4465,7 @@
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
-      <c r="C49" s="1" t="n">
-        <v>-1363</v>
-      </c>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" s="3" t="n">
         <v>739</v>
       </c>
@@ -4338,8 +4493,11 @@
       <c r="L49" s="1" t="n">
         <v>-10466</v>
       </c>
-      <c r="M49" s="3" t="n">
-        <v>403</v>
+      <c r="M49" s="1" t="n">
+        <v>3598</v>
+      </c>
+      <c r="N49" s="1" t="n">
+        <v>3598</v>
       </c>
     </row>
     <row r="50">
@@ -4349,9 +4507,7 @@
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
-      <c r="C50" s="1" t="n">
-        <v>29338</v>
-      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" s="1" t="n">
         <v>145439</v>
       </c>
@@ -4380,7 +4536,10 @@
         <v>989657</v>
       </c>
       <c r="M50" s="1" t="n">
-        <v>1010590</v>
+        <v>986544</v>
+      </c>
+      <c r="N50" s="1" t="n">
+        <v>986544</v>
       </c>
     </row>
     <row r="51">
@@ -4390,9 +4549,7 @@
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
-      <c r="C51" s="1" t="n">
-        <v>1079</v>
-      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" s="1" t="n">
         <v>11974</v>
       </c>
@@ -4421,7 +4578,10 @@
         <v>133264</v>
       </c>
       <c r="M51" s="1" t="n">
-        <v>131840</v>
+        <v>126055</v>
+      </c>
+      <c r="N51" s="1" t="n">
+        <v>126055</v>
       </c>
     </row>
     <row r="52">
@@ -4431,9 +4591,7 @@
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
-      <c r="C52" s="1" t="n">
-        <v>40701</v>
-      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" s="1" t="n">
         <v>157413</v>
       </c>
@@ -4462,7 +4620,10 @@
         <v>1122921</v>
       </c>
       <c r="M52" s="1" t="n">
-        <v>1142430</v>
+        <v>1112599</v>
+      </c>
+      <c r="N52" s="1" t="n">
+        <v>1112599</v>
       </c>
     </row>
     <row r="53">
@@ -4472,9 +4633,7 @@
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
-      <c r="C53" s="1" t="n">
-        <v>111549</v>
-      </c>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" s="1" t="n">
         <v>255434</v>
       </c>
@@ -4503,7 +4662,10 @@
         <v>1753044</v>
       </c>
       <c r="M53" s="1" t="n">
-        <v>1820966</v>
+        <v>1764829</v>
+      </c>
+      <c r="N53" s="1" t="n">
+        <v>1764829</v>
       </c>
     </row>
     <row r="54">
@@ -4545,7 +4707,10 @@
         <v>2546.78</v>
       </c>
       <c r="M55" s="1" t="n">
-        <v>2500</v>
+        <v>2418.19</v>
+      </c>
+      <c r="N55" s="1" t="n">
+        <v>2418.19</v>
       </c>
     </row>
     <row r="56">
@@ -4555,9 +4720,7 @@
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
-      <c r="C56" s="3" t="n">
-        <v>13.17</v>
-      </c>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" s="3" t="n">
         <v>58.28</v>
       </c>
@@ -4586,7 +4749,10 @@
         <v>385.72</v>
       </c>
       <c r="M56" s="3" t="n">
-        <v>404.24</v>
+        <v>405.38</v>
+      </c>
+      <c r="N56" s="3" t="n">
+        <v>405.38</v>
       </c>
     </row>
     <row r="57">
@@ -4596,9 +4762,7 @@
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
-      <c r="C57" s="1" t="n">
-        <v>13979</v>
-      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" s="1" t="n">
         <v>93826</v>
       </c>
@@ -4627,7 +4791,10 @@
         <v>674653</v>
       </c>
       <c r="M57" s="1" t="n">
-        <v>722713</v>
+        <v>699915</v>
+      </c>
+      <c r="N57" s="1" t="n">
+        <v>699915</v>
       </c>
     </row>
     <row r="58">
@@ -4637,9 +4804,7 @@
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
-      <c r="C58" s="3" t="n">
-        <v>6.28</v>
-      </c>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" s="3" t="n">
         <v>37.6</v>
       </c>
@@ -4668,7 +4833,10 @@
         <v>262.95</v>
       </c>
       <c r="M58" s="3" t="n">
-        <v>289.09</v>
+        <v>287.6</v>
+      </c>
+      <c r="N58" s="3" t="n">
+        <v>287.6</v>
       </c>
     </row>
     <row r="59">
@@ -4678,9 +4846,7 @@
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
-      <c r="C59" s="1" t="n">
-        <v>41075</v>
-      </c>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" s="1" t="n">
         <v>52593</v>
       </c>
@@ -4709,7 +4875,10 @@
         <v>195569</v>
       </c>
       <c r="M59" s="1" t="n">
-        <v>198505</v>
+        <v>205614</v>
+      </c>
+      <c r="N59" s="1" t="n">
+        <v>205614</v>
       </c>
     </row>
     <row r="60">
@@ -4719,9 +4888,7 @@
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
-      <c r="C60" s="1" t="n">
-        <v>-3999</v>
-      </c>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" s="1" t="n">
         <v>-73406</v>
       </c>
@@ -4750,7 +4917,10 @@
         <v>-328901</v>
       </c>
       <c r="M60" s="1" t="n">
-        <v>-415894</v>
+        <v>-365415</v>
+      </c>
+      <c r="N60" s="1" t="n">
+        <v>-365415</v>
       </c>
     </row>
     <row r="61">
@@ -4771,6 +4941,7 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4790,6 +4961,7 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4809,6 +4981,7 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4828,6 +5001,7 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4847,6 +5021,7 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4859,7 +5034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4930,6 +5105,11 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
+          <t>3/31/24</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
           <t>LTM</t>
         </is>
       </c>
@@ -4941,9 +5121,7 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" s="1" t="n">
-        <v>23315</v>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" s="1" t="n">
         <v>24261</v>
       </c>
@@ -4972,7 +5150,10 @@
         <v>72783</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>100288</v>
+        <v>80009</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>80009</v>
       </c>
     </row>
     <row r="4">
@@ -4982,9 +5163,7 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" s="1" t="n">
-        <v>1295</v>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" s="1" t="n">
         <v>2282</v>
       </c>
@@ -5013,7 +5192,10 @@
         <v>27799</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>26645</v>
+        <v>26640</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>26640</v>
       </c>
     </row>
     <row r="5">
@@ -5023,9 +5205,7 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" s="3" t="n">
-        <v>315</v>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" s="1" t="n">
         <v>2173</v>
       </c>
@@ -5054,7 +5234,10 @@
         <v>19139</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>27640</v>
+        <v>17864</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>17864</v>
       </c>
     </row>
     <row r="6">
@@ -5064,9 +5247,7 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" s="1" t="n">
-        <v>1610</v>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" s="1" t="n">
         <v>4455</v>
       </c>
@@ -5095,7 +5276,10 @@
         <v>46938</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>54285</v>
+        <v>44504</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>44504</v>
       </c>
     </row>
     <row r="7">
@@ -5105,9 +5289,7 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" s="3" t="n">
-        <v>44</v>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" s="3" t="n">
         <v>44</v>
       </c>
@@ -5128,6 +5310,7 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5136,9 +5319,7 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" s="3" t="n">
-        <v>-387</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" s="3" t="n">
         <v>-320</v>
       </c>
@@ -5166,8 +5347,11 @@
       <c r="L8" s="3" t="n">
         <v>-177</v>
       </c>
-      <c r="M8" s="3" t="n">
-        <v>-177</v>
+      <c r="M8" s="1" t="n">
+        <v>-1657</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>-1657</v>
       </c>
     </row>
     <row r="9">
@@ -5177,9 +5361,7 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" s="3" t="n">
-        <v>32</v>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" s="1" t="n">
         <v>-6422</v>
       </c>
@@ -5208,7 +5390,10 @@
         <v>28310</v>
       </c>
       <c r="M9" s="1" t="n">
-        <v>28310</v>
+        <v>35734</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>35734</v>
       </c>
     </row>
     <row r="10">
@@ -5218,9 +5403,7 @@
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" s="3" t="n">
-        <v>-54</v>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" s="3" t="n">
         <v>443</v>
       </c>
@@ -5249,7 +5432,10 @@
         <v>5136</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>5136</v>
+        <v>21902</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>21902</v>
       </c>
     </row>
     <row r="11">
@@ -5259,9 +5445,7 @@
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" s="3" t="n">
-        <v>442</v>
-      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -5272,6 +5456,7 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5280,9 +5465,7 @@
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" s="3" t="n">
-        <v>203</v>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" s="1" t="n">
         <v>1590</v>
       </c>
@@ -5311,7 +5494,10 @@
         <v>8063</v>
       </c>
       <c r="M12" s="1" t="n">
-        <v>8063</v>
+        <v>7735</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>7735</v>
       </c>
     </row>
     <row r="13">
@@ -5321,9 +5507,7 @@
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" s="1" t="n">
-        <v>2844</v>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" s="1" t="n">
         <v>13028</v>
       </c>
@@ -5352,7 +5536,10 @@
         <v>30831</v>
       </c>
       <c r="M13" s="1" t="n">
-        <v>30831</v>
+        <v>18546</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>18546</v>
       </c>
     </row>
     <row r="14">
@@ -5377,6 +5564,7 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5414,7 +5602,10 @@
         <v>2802</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>2802</v>
+        <v>3509</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>3509</v>
       </c>
     </row>
     <row r="16">
@@ -5424,9 +5615,7 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" s="1" t="n">
-        <v>2823</v>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" s="1" t="n">
         <v>1718</v>
       </c>
@@ -5455,7 +5644,10 @@
         <v>-8416</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>-52366</v>
+        <v>-13940</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>-13940</v>
       </c>
     </row>
     <row r="17">
@@ -5465,9 +5657,7 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" s="1" t="n">
-        <v>1606</v>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" s="1" t="n">
         <v>1317</v>
       </c>
@@ -5496,7 +5686,10 @@
         <v>4382</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>4382</v>
+        <v>2070</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>2070</v>
       </c>
     </row>
     <row r="18">
@@ -5506,9 +5699,7 @@
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" s="1" t="n">
-        <v>1008</v>
-      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" s="1" t="n">
         <v>1410</v>
       </c>
@@ -5537,7 +5728,10 @@
         <v>-9214</v>
       </c>
       <c r="M18" s="1" t="n">
-        <v>-9214</v>
+        <v>-4764</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>-4764</v>
       </c>
     </row>
     <row r="19">
@@ -5547,9 +5741,7 @@
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" s="1" t="n">
-        <v>-7107</v>
-      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" s="1" t="n">
         <v>-1168</v>
       </c>
@@ -5578,7 +5770,10 @@
         <v>18314</v>
       </c>
       <c r="M19" s="1" t="n">
-        <v>18314</v>
+        <v>-11055</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>-11055</v>
       </c>
     </row>
     <row r="20">
@@ -5588,9 +5783,7 @@
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" s="1" t="n">
-        <v>26379</v>
-      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" s="1" t="n">
         <v>41217</v>
       </c>
@@ -5619,7 +5812,10 @@
         <v>199752</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>190654</v>
+        <v>182593</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>182593</v>
       </c>
     </row>
     <row r="21">
@@ -5629,9 +5825,7 @@
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" s="1" t="n">
-        <v>-4493</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" s="1" t="n">
         <v>1559</v>
       </c>
@@ -5660,7 +5854,10 @@
         <v>13482</v>
       </c>
       <c r="M21" s="1" t="n">
-        <v>13482</v>
+        <v>-13749</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>-13749</v>
       </c>
     </row>
     <row r="22">
@@ -5670,9 +5867,7 @@
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" s="1" t="n">
-        <v>-4776</v>
-      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" s="1" t="n">
         <v>-7705</v>
       </c>
@@ -5701,7 +5896,10 @@
         <v>-34330</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>-34330</v>
+        <v>-32087</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>-32087</v>
       </c>
     </row>
     <row r="23">
@@ -5724,7 +5922,10 @@
         <v>644</v>
       </c>
       <c r="M23" s="3" t="n">
-        <v>644</v>
+        <v>373</v>
+      </c>
+      <c r="N23" s="3" t="n">
+        <v>373</v>
       </c>
     </row>
     <row r="24">
@@ -5734,9 +5935,7 @@
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" s="3" t="n">
-        <v>-732</v>
-      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" s="1" t="n">
         <v>-10255</v>
       </c>
@@ -5765,7 +5964,10 @@
         <v>-1204</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>-1204</v>
+        <v>-2204</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>-2204</v>
       </c>
     </row>
     <row r="25">
@@ -5775,9 +5977,7 @@
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" s="3" t="n">
-        <v>-46</v>
-      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" s="1" t="n">
         <v>-1271</v>
       </c>
@@ -5806,7 +6006,10 @@
         <v>-5</v>
       </c>
       <c r="M25" s="3" t="n">
-        <v>-5</v>
+        <v>699</v>
+      </c>
+      <c r="N25" s="3" t="n">
+        <v>699</v>
       </c>
     </row>
     <row r="26">
@@ -5841,7 +6044,10 @@
         <v>-22</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>-22</v>
+        <v>-842</v>
+      </c>
+      <c r="N26" s="3" t="n">
+        <v>-842</v>
       </c>
     </row>
     <row r="27">
@@ -5851,9 +6057,7 @@
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" s="1" t="n">
-        <v>-27430</v>
-      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" s="1" t="n">
         <v>-35322</v>
       </c>
@@ -5882,7 +6086,10 @@
         <v>-101511</v>
       </c>
       <c r="M27" s="1" t="n">
-        <v>-101511</v>
+        <v>11500</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>11500</v>
       </c>
     </row>
     <row r="28">
@@ -5892,9 +6099,7 @@
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" s="3" t="n">
-        <v>-13</v>
-      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" s="1" t="n">
         <v>1099</v>
       </c>
@@ -5922,8 +6127,11 @@
       <c r="L28" s="3" t="n">
         <v>922</v>
       </c>
-      <c r="M28" s="1" t="n">
-        <v>67529</v>
+      <c r="M28" s="3" t="n">
+        <v>737</v>
+      </c>
+      <c r="N28" s="3" t="n">
+        <v>737</v>
       </c>
     </row>
     <row r="29">
@@ -5933,9 +6141,7 @@
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
-      <c r="C29" s="1" t="n">
-        <v>-32997</v>
-      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" s="1" t="n">
         <v>-53454</v>
       </c>
@@ -5964,7 +6170,10 @@
         <v>-135506</v>
       </c>
       <c r="M29" s="1" t="n">
-        <v>-68899</v>
+        <v>-21824</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>-21824</v>
       </c>
     </row>
     <row r="30">
@@ -5974,9 +6183,7 @@
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" s="1" t="n">
-        <v>84029</v>
-      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" s="1" t="n">
         <v>182585</v>
       </c>
@@ -6005,7 +6212,10 @@
         <v>22790</v>
       </c>
       <c r="M30" s="1" t="n">
-        <v>22790</v>
+        <v>20570</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>20570</v>
       </c>
     </row>
     <row r="31">
@@ -6015,9 +6225,7 @@
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" s="1" t="n">
-        <v>-71240</v>
-      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" s="1" t="n">
         <v>-156541</v>
       </c>
@@ -6046,7 +6254,10 @@
         <v>-11448</v>
       </c>
       <c r="M31" s="1" t="n">
-        <v>-11448</v>
+        <v>-18105</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>-18105</v>
       </c>
     </row>
     <row r="32">
@@ -6056,9 +6267,7 @@
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" s="1" t="n">
-        <v>1638</v>
-      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" s="1" t="n">
         <v>61831</v>
       </c>
@@ -6087,7 +6296,10 @@
         <v>11</v>
       </c>
       <c r="M32" s="3" t="n">
-        <v>11</v>
+        <v>843</v>
+      </c>
+      <c r="N32" s="3" t="n">
+        <v>843</v>
       </c>
     </row>
     <row r="33">
@@ -6097,9 +6309,7 @@
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" s="3" t="n">
-        <v>-157</v>
-      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" s="3" t="n">
         <v>-270</v>
       </c>
@@ -6124,7 +6334,10 @@
         <v>-74746</v>
       </c>
       <c r="M33" s="1" t="n">
-        <v>-74746</v>
+        <v>-88745</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>-88745</v>
       </c>
     </row>
     <row r="34">
@@ -6145,6 +6358,7 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6153,9 +6367,7 @@
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" s="1" t="n">
-        <v>-5131</v>
-      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
@@ -6166,20 +6378,17 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Preferred Dividends Paid</t>
+          <t>Common Dividends Paid</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" s="3" t="n">
-        <v>-208</v>
-      </c>
-      <c r="D36" s="3" t="n">
-        <v>-104</v>
-      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
@@ -6188,18 +6397,21 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+      <c r="M36" s="1" t="n">
+        <v>-17946</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>-17946</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Common &amp; Preferred Stock Dividends Paid</t>
+          <t>Preferred Dividends Paid</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" s="3" t="n">
-        <v>-208</v>
-      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" s="3" t="n">
         <v>-104</v>
       </c>
@@ -6212,500 +6424,539 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Other Financing Activities</t>
+          <t>Common &amp; Preferred Stock Dividends Paid</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" s="3" t="n">
-        <v>433</v>
-      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" s="3" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E38" s="3" t="n">
-        <v>778</v>
-      </c>
-      <c r="F38" s="1" t="n">
-        <v>2069</v>
-      </c>
-      <c r="G38" s="1" t="n">
-        <v>-13665</v>
-      </c>
-      <c r="H38" s="1" t="n">
-        <v>7357</v>
-      </c>
-      <c r="I38" s="1" t="n">
-        <v>-4631</v>
-      </c>
-      <c r="J38" s="3" t="n">
-        <v>-669</v>
-      </c>
-      <c r="K38" s="1" t="n">
-        <v>3953</v>
-      </c>
-      <c r="L38" s="1" t="n">
-        <v>-2226</v>
-      </c>
-      <c r="M38" s="3" t="n">
-        <v>-158</v>
+        <v>-104</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" s="1" t="n">
+        <v>-17946</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <v>-17946</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Cash from Financing</t>
+          <t>Other Financing Activities</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" s="1" t="n">
-        <v>9364</v>
-      </c>
-      <c r="D39" s="1" t="n">
-        <v>87497</v>
-      </c>
-      <c r="E39" s="1" t="n">
-        <v>-15846</v>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" s="3" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>778</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>32914</v>
+        <v>2069</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>20359</v>
+        <v>-13665</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>-7392</v>
+        <v>7357</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>70853</v>
-      </c>
-      <c r="J39" s="1" t="n">
-        <v>30082</v>
+        <v>-4631</v>
+      </c>
+      <c r="J39" s="3" t="n">
+        <v>-669</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>-64449</v>
+        <v>3953</v>
       </c>
       <c r="L39" s="1" t="n">
-        <v>-65619</v>
+        <v>-2226</v>
       </c>
       <c r="M39" s="1" t="n">
-        <v>-63551</v>
+        <v>-4861</v>
+      </c>
+      <c r="N39" s="1" t="n">
+        <v>-4861</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Foreign Exchange Rate Adjustments</t>
+          <t>Cash from Financing</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" s="3" t="n">
-        <v>-97</v>
-      </c>
-      <c r="D40" s="3" t="n">
-        <v>-112</v>
-      </c>
-      <c r="E40" s="3" t="n">
-        <v>466</v>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" s="1" t="n">
+        <v>87497</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>-15846</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>2038</v>
+        <v>32914</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>-6065</v>
+        <v>20359</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>3245</v>
+        <v>-7392</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>4100</v>
+        <v>70853</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>-7187</v>
+        <v>30082</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>-8834</v>
+        <v>-64449</v>
       </c>
       <c r="L40" s="1" t="n">
-        <v>3530</v>
+        <v>-65619</v>
       </c>
       <c r="M40" s="1" t="n">
-        <v>1288</v>
+        <v>-108244</v>
+      </c>
+      <c r="N40" s="1" t="n">
+        <v>-108244</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Net Change in Cash</t>
+          <t>Foreign Exchange Rate Adjustments</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" s="1" t="n">
-        <v>2649</v>
-      </c>
-      <c r="D41" s="1" t="n">
-        <v>75148</v>
-      </c>
-      <c r="E41" s="1" t="n">
-        <v>-1375</v>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" s="3" t="n">
+        <v>-112</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>466</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>38227</v>
+        <v>2038</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>56335</v>
+        <v>-6065</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>-4232</v>
+        <v>3245</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>147488</v>
+        <v>4100</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>10487</v>
+        <v>-7187</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>-129116</v>
+        <v>-8834</v>
       </c>
       <c r="L41" s="1" t="n">
-        <v>2157</v>
+        <v>3530</v>
       </c>
       <c r="M41" s="1" t="n">
-        <v>59492</v>
+        <v>4389</v>
+      </c>
+      <c r="N41" s="1" t="n">
+        <v>4389</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Supplementary Data:</t>
-        </is>
+          <t>Net Change in Cash</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" s="1" t="n">
+        <v>75148</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>-1375</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>38227</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>56335</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>-4232</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>147488</v>
+      </c>
+      <c r="J42" s="1" t="n">
+        <v>10487</v>
+      </c>
+      <c r="K42" s="1" t="n">
+        <v>-129116</v>
+      </c>
+      <c r="L42" s="1" t="n">
+        <v>2157</v>
+      </c>
+      <c r="M42" s="1" t="n">
+        <v>56914</v>
+      </c>
+      <c r="N42" s="1" t="n">
+        <v>56914</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Free Cash Flow</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" s="1" t="n">
-        <v>21603</v>
-      </c>
-      <c r="D43" s="1" t="n">
-        <v>33512</v>
-      </c>
-      <c r="E43" s="1" t="n">
-        <v>45991</v>
-      </c>
-      <c r="F43" s="1" t="n">
-        <v>71848</v>
-      </c>
-      <c r="G43" s="1" t="n">
-        <v>106177</v>
-      </c>
-      <c r="H43" s="1" t="n">
-        <v>115493</v>
-      </c>
-      <c r="I43" s="1" t="n">
-        <v>148057</v>
-      </c>
-      <c r="J43" s="1" t="n">
-        <v>190336</v>
-      </c>
-      <c r="K43" s="1" t="n">
-        <v>89450</v>
-      </c>
-      <c r="L43" s="1" t="n">
-        <v>165422</v>
-      </c>
-      <c r="M43" s="1" t="n">
-        <v>156324</v>
+          <t>Supplementary Data:</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>% Change YoY</t>
+          <t>Free Cash Flow</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" s="2" t="n">
-        <v>0.551</v>
-      </c>
-      <c r="E44" s="2" t="n">
-        <v>0.3720000000000001</v>
-      </c>
-      <c r="F44" s="2" t="n">
-        <v>0.5620000000000001</v>
-      </c>
-      <c r="G44" s="2" t="n">
-        <v>0.478</v>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>0.08800000000000001</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>0.282</v>
-      </c>
-      <c r="J44" s="2" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="K44" s="3" t="n">
-        <v>-53</v>
-      </c>
-      <c r="L44" s="2" t="n">
-        <v>0.8490000000000001</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="D44" s="1" t="n">
+        <v>33512</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>45991</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>71848</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>106177</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>115493</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>148057</v>
+      </c>
+      <c r="J44" s="1" t="n">
+        <v>190336</v>
+      </c>
+      <c r="K44" s="1" t="n">
+        <v>89450</v>
+      </c>
+      <c r="L44" s="1" t="n">
+        <v>165422</v>
+      </c>
+      <c r="M44" s="1" t="n">
+        <v>150506</v>
+      </c>
+      <c r="N44" s="1" t="n">
+        <v>150506</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>% Free Cash Flow Margins</t>
+          <t>% Change YoY</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" s="2" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>0.44</v>
-      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" s="2" t="n">
-        <v>0.455</v>
+        <v>0.3720000000000001</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>0.454</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>0.424</v>
+        <v>0.478</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>0.306</v>
+        <v>0.08800000000000001</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>0.29</v>
+        <v>0.282</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>0.265</v>
-      </c>
-      <c r="K45" s="2" t="n">
-        <v>0.105</v>
+        <v>0.286</v>
+      </c>
+      <c r="K45" s="3" t="n">
+        <v>-53</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="M45" s="2" t="n">
-        <v>0.169</v>
-      </c>
+        <v>0.8490000000000001</v>
+      </c>
+      <c r="M45" s="3" t="n">
+        <v>-9</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Cash and Cash Equivalents, Beginning of Period</t>
+          <t>% Free Cash Flow Margins</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" s="1" t="n">
-        <v>30396</v>
-      </c>
-      <c r="D46" s="1" t="n">
-        <v>33045</v>
-      </c>
-      <c r="E46" s="1" t="n">
-        <v>108193</v>
-      </c>
-      <c r="F46" s="1" t="n">
-        <v>108164</v>
-      </c>
-      <c r="G46" s="1" t="n">
-        <v>146391</v>
-      </c>
-      <c r="H46" s="1" t="n">
-        <v>202726</v>
-      </c>
-      <c r="I46" s="1" t="n">
-        <v>198494</v>
-      </c>
-      <c r="J46" s="1" t="n">
-        <v>345982</v>
-      </c>
-      <c r="K46" s="1" t="n">
-        <v>356469</v>
-      </c>
-      <c r="L46" s="1" t="n">
-        <v>227353</v>
-      </c>
-      <c r="M46" s="1" t="n">
-        <v>229510</v>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" s="2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="J46" s="2" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="K46" s="2" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="L46" s="2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M46" s="2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="N46" s="2" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Cash and Cash Equivalents, End of Period</t>
+          <t>Cash and Cash Equivalents, Beginning of Period</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
-      <c r="C47" s="1" t="n">
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" s="1" t="n">
         <v>33045</v>
       </c>
-      <c r="D47" s="1" t="n">
+      <c r="E47" s="1" t="n">
         <v>108193</v>
       </c>
-      <c r="E47" s="1" t="n">
-        <v>106818</v>
-      </c>
       <c r="F47" s="1" t="n">
+        <v>108164</v>
+      </c>
+      <c r="G47" s="1" t="n">
         <v>146391</v>
       </c>
-      <c r="G47" s="1" t="n">
+      <c r="H47" s="1" t="n">
         <v>202726</v>
       </c>
-      <c r="H47" s="1" t="n">
+      <c r="I47" s="1" t="n">
         <v>198494</v>
       </c>
-      <c r="I47" s="1" t="n">
+      <c r="J47" s="1" t="n">
         <v>345982</v>
       </c>
-      <c r="J47" s="1" t="n">
+      <c r="K47" s="1" t="n">
         <v>356469</v>
       </c>
-      <c r="K47" s="1" t="n">
+      <c r="L47" s="1" t="n">
         <v>227353</v>
       </c>
-      <c r="L47" s="1" t="n">
+      <c r="M47" s="1" t="n">
         <v>229510</v>
       </c>
-      <c r="M47" s="1" t="n">
-        <v>294929</v>
+      <c r="N47" s="1" t="n">
+        <v>229510</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Cash Interest Paid</t>
+          <t>Cash and Cash Equivalents, End of Period</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
-      <c r="C48" s="1" t="n">
-        <v>1220</v>
-      </c>
-      <c r="D48" s="3" t="n">
-        <v>956</v>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" s="1" t="n">
+        <v>108193</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>1560</v>
+        <v>106818</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>2465</v>
+        <v>146391</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>2884</v>
+        <v>202726</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>4972</v>
+        <v>198494</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>5066</v>
+        <v>345982</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>4101</v>
+        <v>356469</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>4886</v>
+        <v>227353</v>
       </c>
       <c r="L48" s="1" t="n">
-        <v>5637</v>
+        <v>229510</v>
       </c>
       <c r="M48" s="1" t="n">
-        <v>5637</v>
+        <v>286424</v>
+      </c>
+      <c r="N48" s="1" t="n">
+        <v>286424</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Cash Taxes Paid</t>
+          <t>Cash Interest Paid</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
-      <c r="C49" s="3" t="n">
-        <v>722</v>
-      </c>
-      <c r="D49" s="1" t="n">
-        <v>3458</v>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" s="3" t="n">
+        <v>956</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>6465</v>
+        <v>1560</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>9652</v>
+        <v>2465</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>10058</v>
+        <v>2884</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>15713</v>
+        <v>4972</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>21474</v>
+        <v>5066</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>20898</v>
+        <v>4101</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>31733</v>
+        <v>4886</v>
       </c>
       <c r="L49" s="1" t="n">
-        <v>26476</v>
+        <v>5637</v>
       </c>
       <c r="M49" s="1" t="n">
-        <v>26476</v>
+        <v>7832</v>
+      </c>
+      <c r="N49" s="1" t="n">
+        <v>7832</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>Cash Taxes Paid</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" s="1" t="n">
+        <v>3458</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>6465</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>9652</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <v>10058</v>
+      </c>
+      <c r="H50" s="1" t="n">
+        <v>15713</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>21474</v>
+      </c>
+      <c r="J50" s="1" t="n">
+        <v>20898</v>
+      </c>
+      <c r="K50" s="1" t="n">
+        <v>31733</v>
+      </c>
+      <c r="L50" s="1" t="n">
+        <v>26476</v>
+      </c>
+      <c r="M50" s="1" t="n">
+        <v>32486</v>
+      </c>
+      <c r="N50" s="1" t="n">
+        <v>32486</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
           <t>Cash Flow per Share</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" s="3" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="D50" s="3" t="n">
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" s="3" t="n">
         <v>14.3</v>
       </c>
-      <c r="E50" s="3" t="n">
+      <c r="E51" s="3" t="n">
         <v>18.71</v>
       </c>
-      <c r="F50" s="3" t="n">
+      <c r="F51" s="3" t="n">
         <v>26.2</v>
       </c>
-      <c r="G50" s="3" t="n">
+      <c r="G51" s="3" t="n">
         <v>37.59</v>
       </c>
-      <c r="H50" s="3" t="n">
+      <c r="H51" s="3" t="n">
         <v>39.28</v>
       </c>
-      <c r="I50" s="3" t="n">
+      <c r="I51" s="3" t="n">
         <v>56.29</v>
       </c>
-      <c r="J50" s="3" t="n">
+      <c r="J51" s="3" t="n">
         <v>69.93000000000001</v>
       </c>
-      <c r="K50" s="3" t="n">
+      <c r="K51" s="3" t="n">
         <v>33.19</v>
       </c>
-      <c r="L50" s="3" t="n">
+      <c r="L51" s="3" t="n">
         <v>63.07</v>
       </c>
-      <c r="M50" s="3" t="n">
-        <v>61.28</v>
+      <c r="M51" s="3" t="n">
+        <v>59.33</v>
+      </c>
+      <c r="N51" s="3" t="n">
+        <v>59.33</v>
       </c>
     </row>
   </sheetData>
@@ -6955,12 +7206,12 @@
       </c>
       <c r="AT1" t="inlineStr">
         <is>
-          <t>3/30/24</t>
+          <t>3/31/24</t>
         </is>
       </c>
       <c r="AU1" t="inlineStr">
         <is>
-          <t>4/16/24</t>
+          <t>6/12/24</t>
         </is>
       </c>
     </row>
@@ -7091,12 +7342,12 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>1.03x</t>
+          <t>0.97x</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>0.94x</t>
+          <t>1.10x</t>
         </is>
       </c>
     </row>
@@ -7220,12 +7471,12 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>1.32x</t>
+          <t>1.24x</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>1.24x</t>
+          <t>1.34x</t>
         </is>
       </c>
     </row>
@@ -7354,7 +7605,7 @@
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>4.71x</t>
+          <t>5.99x</t>
         </is>
       </c>
     </row>
@@ -7438,7 +7689,7 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>18.62x</t>
+          <t>18.53x</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
@@ -7473,17 +7724,17 @@
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>7.97x</t>
+          <t>7.98x</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>7.36x</t>
+          <t>7.39x</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>6.84x</t>
+          <t>8.48x</t>
         </is>
       </c>
     </row>
@@ -7612,7 +7863,7 @@
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>8.66x</t>
+          <t>9.09x</t>
         </is>
       </c>
     </row>
@@ -7726,7 +7977,7 @@
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>9.26x</t>
+          <t>9.25x</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -7741,7 +7992,7 @@
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>7.20x</t>
+          <t>8.60x</t>
         </is>
       </c>
     </row>
@@ -7833,7 +8084,7 @@
         <v>0.136</v>
       </c>
       <c r="AU9" s="2" t="n">
-        <v>0.139</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="10">
@@ -7890,7 +8141,7 @@
         <v>0.023</v>
       </c>
       <c r="AU10" s="2" t="n">
-        <v>0.022</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="11">
@@ -7945,7 +8196,7 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>7.80x</t>
+          <t>8.00x</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -8005,7 +8256,7 @@
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>1.47x</t>
+          <t>1.46x</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
@@ -8025,7 +8276,7 @@
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>0.99x</t>
+          <t>1.19x</t>
         </is>
       </c>
     </row>
@@ -8074,7 +8325,7 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>8.04x</t>
+          <t>8.24x</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
@@ -8134,7 +8385,7 @@
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>1.71x</t>
+          <t>1.69x</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
@@ -8154,7 +8405,7 @@
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>1.30x</t>
+          <t>1.45x</t>
         </is>
       </c>
     </row>
@@ -8246,7 +8497,7 @@
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>32.36x</t>
+          <t>32.61x</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
@@ -8256,7 +8507,7 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>31.59x</t>
+          <t>27.68x</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
@@ -8316,7 +8567,7 @@
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>8.23x</t>
+          <t>8.79x</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
@@ -8336,7 +8587,7 @@
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>5.05x</t>
+          <t>6.53x</t>
         </is>
       </c>
     </row>
@@ -8375,7 +8626,7 @@
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>48.11x</t>
+          <t>47.85x</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
@@ -8385,7 +8636,7 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>43.23x</t>
+          <t>39.83x</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
@@ -8445,7 +8696,7 @@
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>12.00x</t>
+          <t>12.32x</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
@@ -8465,7 +8716,7 @@
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>7.21x</t>
+          <t>9.07x</t>
         </is>
       </c>
     </row>
@@ -8514,7 +8765,7 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>3.43x</t>
+          <t>2.89x</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
@@ -8574,7 +8825,7 @@
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>5.81x</t>
+          <t>2.59x</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
@@ -8594,7 +8845,7 @@
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>1.60x</t>
+          <t>2.19x</t>
         </is>
       </c>
     </row>
@@ -8643,7 +8894,7 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>0.68x</t>
+          <t>0.67x</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
@@ -8703,7 +8954,7 @@
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>0.19x</t>
+          <t>0.18x</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
@@ -8723,7 +8974,7 @@
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>0.15x</t>
+          <t>0.17x</t>
         </is>
       </c>
     </row>
@@ -8762,7 +9013,7 @@
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>1.90x</t>
+          <t>1.91x</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
@@ -8832,7 +9083,7 @@
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>0.28x</t>
+          <t>0.27x</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
@@ -8852,7 +9103,7 @@
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>0.21x</t>
+          <t>0.24x</t>
         </is>
       </c>
     </row>
@@ -8891,7 +9142,7 @@
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>42.28x</t>
+          <t>36.95x</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
@@ -8901,7 +9152,7 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>41.14x</t>
+          <t>33.62x</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
@@ -8961,7 +9212,7 @@
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>21.86x</t>
+          <t>11.01x</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
@@ -8981,7 +9232,7 @@
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>6.08x</t>
+          <t>8.72x</t>
         </is>
       </c>
     </row>
@@ -9020,7 +9271,7 @@
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>43.34x</t>
+          <t>37.71x</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
@@ -9030,7 +9281,7 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>43.87x</t>
+          <t>35.68x</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
@@ -9090,7 +9341,7 @@
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>35.26x</t>
+          <t>13.16x</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
@@ -9110,7 +9361,7 @@
       </c>
       <c r="AU21" t="inlineStr">
         <is>
-          <t>8.22x</t>
+          <t>11.00x</t>
         </is>
       </c>
     </row>
@@ -9214,7 +9465,9 @@
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="inlineStr"/>
+      <c r="AQ23" s="2" t="n">
+        <v>0.09699999999999999</v>
+      </c>
       <c r="AR23" s="2" t="n">
         <v>0.08699999999999999</v>
       </c>
@@ -9225,7 +9478,7 @@
         <v>0.108</v>
       </c>
       <c r="AU23" s="2" t="n">
-        <v>0.111</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="24">
@@ -9323,7 +9576,7 @@
         <v>70.25</v>
       </c>
       <c r="AU25" s="3" t="n">
-        <v>68.45</v>
+        <v>74.15000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -9414,7 +9667,7 @@
         <v>141335.75</v>
       </c>
       <c r="AU26" s="1" t="n">
-        <v>129345.69</v>
+        <v>155565.15</v>
       </c>
     </row>
     <row r="27">
@@ -9505,7 +9758,7 @@
         <v>181394.7</v>
       </c>
       <c r="AU27" s="1" t="n">
-        <v>169404.64</v>
+        <v>188715.21</v>
       </c>
     </row>
     <row r="28">
@@ -9578,10 +9831,10 @@
         <v>995796.78</v>
       </c>
       <c r="AT29" s="1" t="n">
-        <v>989779.1899999999</v>
+        <v>1051596.28</v>
       </c>
       <c r="AU29" s="1" t="n">
-        <v>991972.16</v>
+        <v>1020144.57</v>
       </c>
     </row>
     <row r="30">
@@ -9650,7 +9903,7 @@
         <v>205205.89</v>
       </c>
       <c r="AU30" s="1" t="n">
-        <v>198907.53</v>
+        <v>188135.05</v>
       </c>
     </row>
     <row r="31">
@@ -9719,7 +9972,7 @@
         <v>138016.67</v>
       </c>
       <c r="AU31" s="1" t="n">
-        <v>136855.1</v>
+        <v>132735.42</v>
       </c>
     </row>
     <row r="32">
@@ -9788,7 +10041,7 @@
         <v>8.050000000000001</v>
       </c>
       <c r="AU32" s="3" t="n">
-        <v>7.31</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="33">
@@ -9845,7 +10098,7 @@
         <v>1.47</v>
       </c>
       <c r="AU33" s="3" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="34">
@@ -9914,7 +10167,7 @@
         <v>176617.83</v>
       </c>
       <c r="AU34" s="1" t="n">
-        <v>170323.91</v>
+        <v>158369.9</v>
       </c>
     </row>
     <row r="35">
@@ -10006,7 +10259,7 @@
         <v>488895</v>
       </c>
       <c r="AE36" s="1" t="n">
-        <v>509711</v>
+        <v>488895</v>
       </c>
       <c r="AF36" s="1" t="n">
         <v>548538</v>
@@ -10042,7 +10295,7 @@
         <v>864539</v>
       </c>
       <c r="AQ36" s="1" t="n">
-        <v>864539</v>
+        <v>868687</v>
       </c>
       <c r="AR36" s="1" t="n">
         <v>897288</v>
@@ -10054,7 +10307,7 @@
         <v>927494</v>
       </c>
       <c r="AU36" s="1" t="n">
-        <v>927494</v>
+        <v>941168</v>
       </c>
     </row>
     <row r="37">
@@ -10156,13 +10409,13 @@
         <v>53044</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>58461</v>
+        <v>63097</v>
       </c>
       <c r="T38" s="1" t="n">
         <v>72933</v>
       </c>
       <c r="U38" s="1" t="n">
-        <v>81654</v>
+        <v>82551</v>
       </c>
       <c r="V38" s="1" t="n">
         <v>89445</v>
@@ -10186,13 +10439,13 @@
         <v>117684</v>
       </c>
       <c r="AC38" s="1" t="n">
-        <v>126973</v>
+        <v>125993</v>
       </c>
       <c r="AD38" s="1" t="n">
         <v>141275</v>
       </c>
       <c r="AE38" s="1" t="n">
-        <v>125917</v>
+        <v>141275</v>
       </c>
       <c r="AF38" s="1" t="n">
         <v>148964</v>
@@ -10228,7 +10481,7 @@
         <v>154891</v>
       </c>
       <c r="AQ38" s="1" t="n">
-        <v>154891</v>
+        <v>144368</v>
       </c>
       <c r="AR38" s="1" t="n">
         <v>172350</v>
@@ -10240,7 +10493,7 @@
         <v>181686</v>
       </c>
       <c r="AU38" s="1" t="n">
-        <v>181686</v>
+        <v>172103</v>
       </c>
     </row>
     <row r="39">
@@ -10289,7 +10542,7 @@
         <v>43635</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>48055</v>
+        <v>48912</v>
       </c>
       <c r="T39" s="1" t="n">
         <v>57611</v>
@@ -10319,13 +10572,13 @@
         <v>77961</v>
       </c>
       <c r="AC39" s="1" t="n">
-        <v>85400</v>
+        <v>85852</v>
       </c>
       <c r="AD39" s="1" t="n">
         <v>98162</v>
       </c>
       <c r="AE39" s="1" t="n">
-        <v>92006</v>
+        <v>98162</v>
       </c>
       <c r="AF39" s="1" t="n">
         <v>105864</v>
@@ -10361,7 +10614,7 @@
         <v>106260</v>
       </c>
       <c r="AQ39" s="1" t="n">
-        <v>106260</v>
+        <v>103065</v>
       </c>
       <c r="AR39" s="1" t="n">
         <v>125698</v>
@@ -10373,7 +10626,7 @@
         <v>127401</v>
       </c>
       <c r="AU39" s="1" t="n">
-        <v>127401</v>
+        <v>123871</v>
       </c>
     </row>
     <row r="40">
@@ -10458,7 +10711,7 @@
         <v>65.05</v>
       </c>
       <c r="AE40" s="3" t="n">
-        <v>55.92</v>
+        <v>65.05</v>
       </c>
       <c r="AF40" s="3" t="n">
         <v>65.14</v>
@@ -10494,7 +10747,7 @@
         <v>12.3</v>
       </c>
       <c r="AQ40" s="3" t="n">
-        <v>12.3</v>
+        <v>27.46</v>
       </c>
       <c r="AR40" s="3" t="n">
         <v>32.15</v>
@@ -10506,7 +10759,7 @@
         <v>38.76</v>
       </c>
       <c r="AU40" s="3" t="n">
-        <v>38.76</v>
+        <v>31.24</v>
       </c>
     </row>
     <row r="41">
@@ -10585,13 +10838,13 @@
         <v>200.63</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>231.85</v>
+        <v>231.12</v>
       </c>
       <c r="AD41" s="3" t="n">
         <v>282.69</v>
       </c>
       <c r="AE41" s="3" t="n">
-        <v>281.93</v>
+        <v>282.69</v>
       </c>
       <c r="AF41" s="3" t="n">
         <v>299.78</v>
@@ -10627,7 +10880,7 @@
         <v>377.18</v>
       </c>
       <c r="AQ41" s="3" t="n">
-        <v>377.18</v>
+        <v>386.21</v>
       </c>
       <c r="AR41" s="3" t="n">
         <v>397.45</v>
@@ -10639,7 +10892,7 @@
         <v>404.24</v>
       </c>
       <c r="AU41" s="3" t="n">
-        <v>404.24</v>
+        <v>405.38</v>
       </c>
     </row>
     <row r="42">
@@ -10718,13 +10971,13 @@
         <v>72.44</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>100.03</v>
+        <v>99.70999999999999</v>
       </c>
       <c r="AD42" s="3" t="n">
         <v>152.85</v>
       </c>
       <c r="AE42" s="3" t="n">
-        <v>155.88</v>
+        <v>152.85</v>
       </c>
       <c r="AF42" s="3" t="n">
         <v>175.79</v>
@@ -10760,7 +11013,7 @@
         <v>254.64</v>
       </c>
       <c r="AQ42" s="3" t="n">
-        <v>254.64</v>
+        <v>263.28</v>
       </c>
       <c r="AR42" s="3" t="n">
         <v>275.44</v>
@@ -10772,7 +11025,7 @@
         <v>289.09</v>
       </c>
       <c r="AU42" s="3" t="n">
-        <v>289.09</v>
+        <v>287.6</v>
       </c>
     </row>
     <row r="43">
@@ -10822,7 +11075,9 @@
       <c r="AN43" t="inlineStr"/>
       <c r="AO43" t="inlineStr"/>
       <c r="AP43" t="inlineStr"/>
-      <c r="AQ43" t="inlineStr"/>
+      <c r="AQ43" s="3" t="n">
+        <v>6.87</v>
+      </c>
       <c r="AR43" s="3" t="n">
         <v>6.87</v>
       </c>
@@ -10833,7 +11088,7 @@
         <v>6.87</v>
       </c>
       <c r="AU43" s="3" t="n">
-        <v>6.87</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="44">
@@ -10882,13 +11137,13 @@
         <v>59531.88</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>56687.38</v>
+        <v>61074</v>
       </c>
       <c r="T44" s="1" t="n">
         <v>68237.88</v>
       </c>
       <c r="U44" s="1" t="n">
-        <v>78458.75</v>
+        <v>79947.75</v>
       </c>
       <c r="V44" s="1" t="n">
         <v>97164</v>
@@ -10912,13 +11167,13 @@
         <v>77409.63</v>
       </c>
       <c r="AC44" s="1" t="n">
-        <v>97168</v>
+        <v>111174.5</v>
       </c>
       <c r="AD44" s="1" t="n">
         <v>116301.25</v>
       </c>
       <c r="AE44" s="1" t="n">
-        <v>96685.75</v>
+        <v>116301.25</v>
       </c>
       <c r="AF44" s="1" t="n">
         <v>118987</v>
@@ -10954,7 +11209,7 @@
         <v>58316.5</v>
       </c>
       <c r="AQ44" s="1" t="n">
-        <v>58316.5</v>
+        <v>115309.63</v>
       </c>
       <c r="AR44" s="1" t="n">
         <v>112054.25</v>
@@ -10966,7 +11221,7 @@
         <v>150977.63</v>
       </c>
       <c r="AU44" s="1" t="n">
-        <v>150977.63</v>
+        <v>128859.38</v>
       </c>
     </row>
     <row r="45">
@@ -11015,13 +11270,13 @@
         <v>57966.25</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>55018</v>
+        <v>59404.63</v>
       </c>
       <c r="T45" s="1" t="n">
         <v>66459.75</v>
       </c>
       <c r="U45" s="1" t="n">
-        <v>76631.25</v>
+        <v>78120.25</v>
       </c>
       <c r="V45" s="1" t="n">
         <v>95247.13</v>
@@ -11045,13 +11300,13 @@
         <v>74082.75</v>
       </c>
       <c r="AC45" s="1" t="n">
-        <v>93828.63</v>
+        <v>107835.13</v>
       </c>
       <c r="AD45" s="1" t="n">
         <v>112977.5</v>
       </c>
       <c r="AE45" s="1" t="n">
-        <v>93448.25</v>
+        <v>112977.5</v>
       </c>
       <c r="AF45" s="1" t="n">
         <v>115888.88</v>
@@ -11087,7 +11342,7 @@
         <v>41830.88</v>
       </c>
       <c r="AQ45" s="1" t="n">
-        <v>41830.88</v>
+        <v>111610.88</v>
       </c>
       <c r="AR45" s="1" t="n">
         <v>104662.38</v>
@@ -11099,7 +11354,7 @@
         <v>146286.38</v>
       </c>
       <c r="AU45" s="1" t="n">
-        <v>146286.38</v>
+        <v>123892.5</v>
       </c>
     </row>
     <row r="46">
@@ -11166,7 +11421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11222,7 +11477,7 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>3/31/24 E</t>
+          <t>3/31/24 A</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
@@ -11246,6 +11501,11 @@
         </is>
       </c>
       <c r="O1" t="inlineStr">
+        <is>
+          <t>3/31/29 E</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
         <is>
           <t>CAGR</t>
         </is>
@@ -11282,17 +11542,20 @@
         <v>868687</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>942615.21</v>
+        <v>941168</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>1014341.87</v>
+        <v>1020144.57</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>1094031.79</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>1100239.21</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>1182421.23</v>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -11325,16 +11588,19 @@
         <v>0.018</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.083</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0.076</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="L4" s="2" t="n">
         <v>0.079</v>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" s="2" t="n">
+        <v>0.075</v>
+      </c>
       <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -11367,17 +11633,20 @@
         <v>175710</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>194530.66</v>
+        <v>191668</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>201667.09</v>
+        <v>188135.05</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>220946.52</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>210410.16</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>222946.65</v>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -11410,16 +11679,19 @@
         <v>0.111</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>0.03700000000000001</v>
+        <v>0.091</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>-1.8</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0.096</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0.118</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>0.06</v>
+      </c>
       <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -11452,17 +11724,20 @@
         <v>0.202</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.206</v>
+        <v>0.204</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>0.199</v>
+        <v>0.184</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>0.202</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0.191</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>0.189</v>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -11495,17 +11770,20 @@
         <v>100351</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>121203.54</v>
+        <v>113350</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>142278.5</v>
+        <v>132735.42</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>159628.98</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>148739.95</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>159091.96</v>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -11538,16 +11816,19 @@
         <v>0.441</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.208</v>
+        <v>0.13</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>0.174</v>
+        <v>0.171</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>0.122</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0.121</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
       <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -11580,17 +11861,20 @@
         <v>0.116</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.129</v>
+        <v>0.12</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0.146</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0.135</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>0.135</v>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -11623,17 +11907,20 @@
         <v>172239</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>169600.1</v>
+        <v>197072</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>170425.04</v>
+        <v>167241.76</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>192778.14</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>183932.48</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>203236.4</v>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -11665,17 +11952,20 @@
       <c r="I12" s="2" t="n">
         <v>0.096</v>
       </c>
-      <c r="J12" s="3" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>0.005</v>
+      <c r="J12" s="2" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>-15.1</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0.131</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0.1</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>0.105</v>
+      </c>
       <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11708,17 +11998,20 @@
         <v>0.198</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.18</v>
+        <v>0.209</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>0.168</v>
+        <v>0.164</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>0.176</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0.167</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>0.172</v>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11751,17 +12044,20 @@
         <v>143991</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>159809.18</v>
+        <v>158359</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>158269.67</v>
+        <v>149585.53</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>175919.35</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>167324.18</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>179290.87</v>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11794,16 +12090,19 @@
         <v>0.003</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>-1</v>
+        <v>-5.5</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>0.112</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0.119</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>0.07200000000000001</v>
+      </c>
       <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11836,17 +12135,20 @@
         <v>0.166</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.17</v>
+        <v>0.168</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>0.156</v>
+        <v>0.147</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0.161</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0.152</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>0.152</v>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11871,17 +12173,20 @@
         <v>6.82</v>
       </c>
       <c r="J17" s="3" t="n">
-        <v>7.76</v>
+        <v>7.78</v>
       </c>
       <c r="K17" s="3" t="n">
-        <v>7.99</v>
+        <v>7.56</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>8.630000000000001</v>
+      </c>
+      <c r="M17" s="3" t="n">
+        <v>9.470000000000001</v>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11904,16 +12209,19 @@
         <v>0.035</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>0.03</v>
+        <v>0.141</v>
+      </c>
+      <c r="K18" s="3" t="n">
+        <v>-2.8</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0.141</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>0.098</v>
+      </c>
       <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11938,17 +12246,20 @@
         <v>3.43</v>
       </c>
       <c r="J19" s="3" t="n">
-        <v>4.87</v>
+        <v>3.91</v>
       </c>
       <c r="K19" s="3" t="n">
-        <v>6.05</v>
+        <v>5.25</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>6.31</v>
+      </c>
+      <c r="M19" s="3" t="n">
+        <v>7</v>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11971,16 +12282,19 @@
         <v>0.208</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.419</v>
+        <v>0.14</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>0.242</v>
+        <v>0.342</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0.203</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>0.109</v>
+      </c>
       <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12013,17 +12327,20 @@
         <v>171663</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>168175.37</v>
+        <v>156210</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>171040.09</v>
+        <v>158369.9</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>211780.2</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>188836.82</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>195712.6</v>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -12056,16 +12373,19 @@
         <v>0.736</v>
       </c>
       <c r="J22" s="3" t="n">
-        <v>-2</v>
+        <v>-9</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>0.017</v>
+        <v>0.014</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0.238</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0.192</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>0.036</v>
+      </c>
       <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -12098,17 +12418,20 @@
         <v>0.198</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.178</v>
+        <v>0.166</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>0.169</v>
+        <v>0.155</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>0.194</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0.172</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>0.166</v>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -12125,17 +12448,20 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" s="3" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="K24" s="3" t="n">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>1.42</v>
+      </c>
+      <c r="M24" s="3" t="n">
+        <v>1.44</v>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -12152,14 +12478,17 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" s="2" t="n">
-        <v>0.198</v>
+      <c r="K25" s="3" t="n">
+        <v>-10.5</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0.05400000000000001</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>0.014</v>
+      </c>
       <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -12199,17 +12528,20 @@
         <v>36.72</v>
       </c>
       <c r="J27" s="3" t="n">
-        <v>37.9</v>
+        <v>37.7</v>
       </c>
       <c r="K27" s="3" t="n">
-        <v>37.5</v>
+        <v>37.38</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>37.42</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>37.19</v>
+      </c>
+      <c r="M27" s="3" t="n">
+        <v>37.41</v>
+      </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -12242,17 +12574,20 @@
         <v>-5918</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>-7587</v>
+        <v>-7947</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>-7486.59</v>
+        <v>-8025.01</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>-7625.27</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>-8076.89</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>-7857.67</v>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -12285,17 +12620,20 @@
         <v>27799</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>27643.76</v>
+        <v>26640</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>29223.6</v>
+        <v>30068.65</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>32092.87</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>32307.72</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <v>36958</v>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -12328,16 +12666,19 @@
         <v>-0</v>
       </c>
       <c r="J30" s="3" t="n">
-        <v>-0.6</v>
+        <v>-4.2</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>0.057</v>
+        <v>0.129</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0.07400000000000001</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>0.144</v>
+      </c>
       <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -12370,17 +12711,20 @@
         <v>17</v>
       </c>
       <c r="J31" s="3" t="n">
-        <v>18.6</v>
+        <v>22.18</v>
       </c>
       <c r="K31" s="3" t="n">
-        <v>19.12</v>
+        <v>19.36</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>18.89</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>19.01</v>
+      </c>
+      <c r="M31" s="3" t="n">
+        <v>19.31</v>
+      </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -12413,17 +12757,20 @@
         <v>89185</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>121266.5</v>
+        <v>101596</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>142823.95</v>
+        <v>124035.92</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>162946.67</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>143684.98</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <v>151933.67</v>
+      </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -12456,16 +12803,19 @@
         <v>0.498</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.36</v>
+        <v>0.139</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>0.178</v>
+        <v>0.221</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>0.141</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0.158</v>
+      </c>
+      <c r="M33" s="2" t="n">
+        <v>0.057</v>
+      </c>
       <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -12498,17 +12848,20 @@
         <v>72509</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>99260.59</v>
+        <v>79741</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>117069.96</v>
+        <v>106743.54</v>
       </c>
       <c r="L34" s="1" t="n">
-        <v>134215.81</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>123064.6</v>
+      </c>
+      <c r="M34" s="1" t="n">
+        <v>137978.02</v>
+      </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -12541,16 +12894,19 @@
         <v>0.17</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.369</v>
+        <v>0.1</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>0.179</v>
+        <v>0.339</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>0.146</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0.153</v>
+      </c>
+      <c r="M35" s="2" t="n">
+        <v>0.121</v>
+      </c>
       <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -12571,17 +12927,20 @@
         <v>8.140000000000001</v>
       </c>
       <c r="J36" s="3" t="n">
-        <v>9.039999999999999</v>
+        <v>9.09</v>
       </c>
       <c r="K36" s="3" t="n">
-        <v>9.890000000000001</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>11.12</v>
+      </c>
+      <c r="M36" s="3" t="n">
+        <v>13.5</v>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -12600,16 +12959,19 @@
         <v>-3.1</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.111</v>
+        <v>0.117</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>0.09300000000000001</v>
+        <v>0.078</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>0.153</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0.136</v>
+      </c>
+      <c r="M37" s="2" t="n">
+        <v>0.214</v>
+      </c>
       <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -12649,17 +13011,20 @@
         <v>199752</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>176921.52</v>
+        <v>182593</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>196142.33</v>
+        <v>168289.84</v>
       </c>
       <c r="L39" s="1" t="n">
-        <v>216823.13</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>202597.63</v>
+      </c>
+      <c r="M39" s="1" t="n">
+        <v>204316.24</v>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -12692,16 +13057,19 @@
         <v>0.399</v>
       </c>
       <c r="J40" s="3" t="n">
-        <v>-11.4</v>
-      </c>
-      <c r="K40" s="2" t="n">
-        <v>0.109</v>
+        <v>-8.6</v>
+      </c>
+      <c r="K40" s="3" t="n">
+        <v>-7.8</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>0.105</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0.204</v>
+      </c>
+      <c r="M40" s="2" t="n">
+        <v>0.008</v>
+      </c>
       <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -12734,17 +13102,20 @@
         <v>-30373</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>-40374.27</v>
+        <v>-27579</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>-42781.47</v>
+        <v>-40220.16</v>
       </c>
       <c r="L41" s="1" t="n">
-        <v>-46951.52</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>-43629.41</v>
+      </c>
+      <c r="M41" s="1" t="n">
+        <v>-45384.95</v>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -12777,16 +13148,19 @@
         <v>0.277</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.329</v>
+        <v>0.092</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>0.06</v>
+        <v>0.458</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>0.09699999999999999</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="M42" s="2" t="n">
+        <v>0.04</v>
+      </c>
       <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -12811,17 +13185,20 @@
         <v>9.460000000000001</v>
       </c>
       <c r="J43" s="3" t="n">
-        <v>8.44</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="K43" s="3" t="n">
-        <v>8.380000000000001</v>
+        <v>8.57</v>
       </c>
       <c r="L43" s="3" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>8.57</v>
+      </c>
+      <c r="M43" s="3" t="n">
+        <v>9</v>
+      </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -12844,16 +13221,19 @@
         <v>0.444</v>
       </c>
       <c r="J44" s="3" t="n">
-        <v>-10.8</v>
+        <v>-5.2</v>
       </c>
       <c r="K44" s="3" t="n">
-        <v>-0.7</v>
+        <v>-4.5</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>0.103</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0.001</v>
+      </c>
+      <c r="M44" s="2" t="n">
+        <v>0.05</v>
+      </c>
       <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -12893,17 +13273,20 @@
         <v>-31732</v>
       </c>
       <c r="J46" s="1" t="n">
-        <v>-274224.14</v>
+        <v>-77349</v>
       </c>
       <c r="K46" s="1" t="n">
-        <v>-375527.17</v>
+        <v>-256622.29</v>
       </c>
       <c r="L46" s="1" t="n">
-        <v>-489649.99</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>-428073.41</v>
+      </c>
+      <c r="M46" s="1" t="n">
+        <v>-440376.55</v>
+      </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12936,17 +13319,20 @@
         <v>-0.18</v>
       </c>
       <c r="J47" s="3" t="n">
-        <v>-1.41</v>
+        <v>-0.4</v>
       </c>
       <c r="K47" s="3" t="n">
-        <v>-1.86</v>
+        <v>-1.36</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>-2.22</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>-2.03</v>
+      </c>
+      <c r="M47" s="3" t="n">
+        <v>-1.98</v>
+      </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12971,17 +13357,20 @@
         <v>47.17</v>
       </c>
       <c r="J48" s="3" t="n">
-        <v>53.43</v>
+        <v>48.88</v>
       </c>
       <c r="K48" s="3" t="n">
-        <v>60.65</v>
+        <v>56.49</v>
       </c>
       <c r="L48" s="3" t="n">
-        <v>66.15000000000001</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>63.6</v>
+      </c>
+      <c r="M48" s="3" t="n">
+        <v>65.63</v>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -13004,16 +13393,19 @@
         <v>0.07200000000000001</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>0.133</v>
+        <v>0.036</v>
       </c>
       <c r="K49" s="2" t="n">
-        <v>0.135</v>
+        <v>0.156</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>0.091</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0.126</v>
+      </c>
+      <c r="M49" s="2" t="n">
+        <v>0.032</v>
+      </c>
       <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13046,17 +13438,20 @@
         <v>7.48</v>
       </c>
       <c r="J50" s="3" t="n">
-        <v>9.369999999999999</v>
+        <v>16.03</v>
       </c>
       <c r="K50" s="3" t="n">
-        <v>10.24</v>
+        <v>10.22</v>
       </c>
       <c r="L50" s="3" t="n">
-        <v>10.18</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>10.88</v>
+      </c>
+      <c r="M50" s="3" t="n">
+        <v>10.51</v>
+      </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13089,17 +13484,20 @@
         <v>4.21</v>
       </c>
       <c r="J51" s="3" t="n">
-        <v>6.43</v>
+        <v>9</v>
       </c>
       <c r="K51" s="3" t="n">
-        <v>6.48</v>
+        <v>5.56</v>
       </c>
       <c r="L51" s="3" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>6.04</v>
+      </c>
+      <c r="M51" s="3" t="n">
+        <v>6.13</v>
+      </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13128,6 +13526,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13149,6 +13548,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -13169,6 +13569,7 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
